--- a/AutoCmdb/CMDB範本/部門/DEMO_部門.xlsx
+++ b/AutoCmdb/CMDB範本/部門/DEMO_部門.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\CMDB\部門\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\workspace\CMDB\AutoCmdb\CMDB範本\部門\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>部門名稱</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>101</t>
+  </si>
+  <si>
+    <t>北1</t>
+  </si>
+  <si>
+    <t>N1</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +481,22 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
